--- a/template/SolarEnergyTemplate.xlsx
+++ b/template/SolarEnergyTemplate.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omar1\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D59BB5-94E1-4393-B073-F86CE91F7F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Vendedor:</t>
   </si>
@@ -31,23 +40,25 @@
     <t xml:space="preserve">Tarifa: </t>
   </si>
   <si>
-    <t>Por medio de la presente, nos permitimos dejar a su consideración una propuesta de venta e
-instalación de un sistema fotovoltaico de paneles solares interconectados a la red de CEF.</t>
-  </si>
-  <si>
-    <t>CARACTERISTICAS DEL SISTEMA</t>
-  </si>
-  <si>
-    <t>Capacida a Instalar:</t>
-  </si>
-  <si>
-    <t>Produccion Promedio:</t>
+    <t>CARACTERÍSTICAS DEL SISTEMA</t>
+  </si>
+  <si>
+    <t>Capacidad a Instalar:</t>
+  </si>
+  <si>
+    <t>Módulos fotovoltaicos:</t>
+  </si>
+  <si>
+    <t>Producción Promedio:</t>
+  </si>
+  <si>
+    <t>Área Mínima de Instalación:</t>
   </si>
   <si>
     <t>Partidad</t>
   </si>
   <si>
-    <t>Descripcion</t>
+    <t>Descripción</t>
   </si>
   <si>
     <t>Cantidad</t>
@@ -56,30 +67,56 @@
     <t>Precio</t>
   </si>
   <si>
-    <t>TOTAL:</t>
+    <t xml:space="preserve">TOTAL MXN CONTADO: </t>
+  </si>
+  <si>
+    <t>TOTAL MXN FINANCIAMIENTO:</t>
+  </si>
+  <si>
+    <t>Por medio de la presente, nos permitimos dejar a su consideración una propuesta de venta e instalación de un sistema fotovoltaico de paneles solares interconectados a la red de CEF.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -88,7 +125,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -110,27 +147,39 @@
     </fill>
   </fills>
   <borders count="12">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -140,174 +189,233 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FFFFD966"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FFFFD966"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thick">
         <color rgb="FFFFD966"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color rgb="FFFFD966"/>
       </right>
       <top style="thick">
         <color rgb="FFFFD966"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FFFFD966"/>
       </left>
-    </border>
-    <border>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color rgb="FFFFD966"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FFFFD966"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FFFFD966"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FFFFD966"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color rgb="FFFFD966"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FFFFD966"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2876550" cy="1533525"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg" title="Image"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7373EC49-6C0A-7FBA-5704-EA4BF8EF717F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="28576"/>
+          <a:ext cx="2514600" cy="1771650"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -497,214 +605,318 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35:I35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3">
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="6">
-      <c r="D6" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="10"/>
-      <c r="E12" s="11" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="14" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="15">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="20" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="21"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="s">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="21"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="22" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="G24" s="12"/>
+      <c r="H24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="23"/>
-      <c r="F25" s="24"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="23"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="F26" s="26"/>
-      <c r="H26" s="25"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="23"/>
-      <c r="C27" s="23"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="22"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="22">
+        <v>6</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="23">
+        <v>1</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="23"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="23"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="H28" s="25"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="H29" s="23"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="H30" s="25"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="H31" s="23"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="H32" s="25"/>
-    </row>
-    <row r="34">
-      <c r="E34" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A15:H17"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
+  <mergeCells count="40">
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F34:I34"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A1:C9"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A15:H17"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G21:H21"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/template/SolarEnergyTemplate.xlsx
+++ b/template/SolarEnergyTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omar1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omar1\Desktop\Projects\CotizadorSolar\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D59BB5-94E1-4393-B073-F86CE91F7F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC097C31-097A-4487-9E23-BF910075CDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="4200" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -283,41 +283,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,22 +339,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>28574</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>838199</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7">
+        <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7373EC49-6C0A-7FBA-5704-EA4BF8EF717F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D4F7EE2-9652-C9CD-53EE-F467F6CA8382}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -363,8 +362,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="28576"/>
-          <a:ext cx="2514600" cy="1771650"/>
+          <a:off x="28574" y="19050"/>
+          <a:ext cx="2486025" cy="1676400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -382,22 +381,21 @@
             <a:fillRect/>
           </a:stretch>
         </a:blipFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -618,7 +616,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35:I35"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -626,266 +624,266 @@
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+    <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="15"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="7" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F11" s="21"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G12" s="15"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="G13" s="24"/>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="24" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="24" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="24" t="s">
+      <c r="G24" s="8"/>
+      <c r="H24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="22">
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="10">
         <v>6</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="23">
+      <c r="G26" s="8"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
         <v>1</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="12"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C34" s="27" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C35" s="13" t="s">
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C35" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A15:H17"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="A1:C9"/>
     <mergeCell ref="A26:B26"/>
@@ -902,18 +900,18 @@
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A15:H17"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="H25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
